--- a/smard/Installed_generation_capacity_201601010000_201612312359.xlsx
+++ b/smard/Installed_generation_capacity_201601010000_201612312359.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\ModellingAssignementSEN1522\smard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23200" windowHeight="6680" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Installed generation capacity" r:id="rId3" sheetId="1"/>
+    <sheet name="Installed generation capacity" sheetId="1" r:id="rId1"/>
+    <sheet name="capacity" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Data category: Installed generation capacity</t>
   </si>
@@ -75,16 +83,126 @@
   </si>
   <si>
     <t>12:00 AM</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Hydropower</t>
+  </si>
+  <si>
+    <t>Photovoltaics</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>WindOffshore</t>
+  </si>
+  <si>
+    <t>WindOnshore</t>
+  </si>
+  <si>
+    <t>OtherRE</t>
+  </si>
+  <si>
+    <t>BrownCoal</t>
+  </si>
+  <si>
+    <t>HardCoal</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>HydroPumpedStorage</t>
+  </si>
+  <si>
+    <t>OtherConventional</t>
+  </si>
+  <si>
+    <t>Fuel unit</t>
+  </si>
+  <si>
+    <t>(MJ/fuel unit)</t>
+  </si>
+  <si>
+    <t>(ton CO2/fuel unit)</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(MWh/fuel unit)</t>
+  </si>
+  <si>
+    <t>[euro/MWh]</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>EnergyValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmissionFactor </t>
+  </si>
+  <si>
+    <t>FuelUnitPrice</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>EnergyValuewithEfficiency</t>
+  </si>
+  <si>
+    <t>EnergyValue_MJ</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>EmissionsperMWh</t>
+  </si>
+  <si>
+    <t>t CO2/MWh</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>eumayors</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Euro/ Unit</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,7 +214,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -113,46 +231,324 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -196,51 +592,396 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="n" s="1">
-        <v>6815.0</v>
-      </c>
-      <c r="D8" t="n" s="1">
-        <v>5514.0</v>
-      </c>
-      <c r="E8" t="n" s="1">
-        <v>3283.0</v>
-      </c>
-      <c r="F8" t="n" s="1">
-        <v>41168.0</v>
-      </c>
-      <c r="G8" t="n" s="1">
-        <v>38686.0</v>
-      </c>
-      <c r="H8" t="n" s="1">
-        <v>545.0</v>
-      </c>
-      <c r="I8" t="n" s="1">
-        <v>10793.0</v>
-      </c>
-      <c r="J8" t="n" s="1">
-        <v>21062.0</v>
-      </c>
-      <c r="K8" t="n" s="1">
-        <v>26264.0</v>
-      </c>
-      <c r="L8" t="n" s="1">
-        <v>32398.0</v>
-      </c>
-      <c r="M8" t="n" s="1">
-        <v>8699.0</v>
-      </c>
-      <c r="N8" t="n" s="1">
-        <v>7576.0</v>
+      <c r="C8" s="1">
+        <v>6815</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5514</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3283</v>
+      </c>
+      <c r="F8" s="1">
+        <v>41168</v>
+      </c>
+      <c r="G8" s="1">
+        <v>38686</v>
+      </c>
+      <c r="H8" s="1">
+        <v>545</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10793</v>
+      </c>
+      <c r="J8" s="1">
+        <v>21062</v>
+      </c>
+      <c r="K8" s="1">
+        <v>26264</v>
+      </c>
+      <c r="L8" s="1">
+        <v>32398</v>
+      </c>
+      <c r="M8" s="1">
+        <v>8699</v>
+      </c>
+      <c r="N8" s="1">
+        <v>7576</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6815</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5514</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3283</v>
+      </c>
+      <c r="E2" s="1">
+        <v>41168</v>
+      </c>
+      <c r="F2" s="1">
+        <v>38686</v>
+      </c>
+      <c r="G2" s="1">
+        <v>545</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10793</v>
+      </c>
+      <c r="I2" s="1">
+        <v>21062</v>
+      </c>
+      <c r="J2" s="1">
+        <v>26264</v>
+      </c>
+      <c r="K2" s="1">
+        <v>32398</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8699</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7576</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>1366</v>
+      </c>
+      <c r="I4">
+        <f>J4</f>
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>0.15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>J5</f>
+        <v>2.66</v>
+      </c>
+      <c r="J5">
+        <v>2.66</v>
+      </c>
+      <c r="K5">
+        <v>1.8699999999999999E-3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>3888000</v>
+      </c>
+      <c r="I6">
+        <f>J6</f>
+        <v>25000</v>
+      </c>
+      <c r="J6">
+        <v>25000</v>
+      </c>
+      <c r="K6">
+        <v>35.069000000000003</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <f>H6/3600</f>
+        <v>1080</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I8" si="0">J7</f>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:K7" si="1">J6/3600</f>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="K7">
+        <f>K6/3600</f>
+        <v>9.7413888888888897E-3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="J8">
+        <v>0.4</v>
+      </c>
+      <c r="K8">
+        <v>0.35</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M10" si="2">AVERAGE(I8:K8)</f>
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="H9">
+        <f>H7*H8</f>
+        <v>324</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:K9" si="3">I7*I8</f>
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="K9">
+        <f>K7*K8</f>
+        <v>3.4094861111111114E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>1.8529883472222224</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="H10">
+        <f>H4/H9</f>
+        <v>4.216049382716049</v>
+      </c>
+      <c r="I10">
+        <f>I4/I9</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="I10:K10" si="4">J4/J9</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K10">
+        <f>K4/K9</f>
+        <v>43.994899850498804</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE(I10:K10)</f>
+        <v>24.264966616832936</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="H11">
+        <f>(H5/H7)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>(I5/I7)/I8</f>
+        <v>0.9575999999999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:K11" si="5">(J5/J7)/J8</f>
+        <v>0.9575999999999999</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>0.5484697514695519</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE(I11:K11)</f>
+        <v>0.82122325048985056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="I12">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.35</v>
+      </c>
+      <c r="K12">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="M12">
+        <f>AVERAGE(I12:K12)</f>
+        <v>0.30533333333333329</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/smard/Installed_generation_capacity_201601010000_201612312359.xlsx
+++ b/smard/Installed_generation_capacity_201601010000_201612312359.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23200" windowHeight="6680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23200" windowHeight="6680"/>
   </bookViews>
   <sheets>
     <sheet name="Installed generation capacity" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Data category: Installed generation capacity</t>
   </si>
@@ -194,13 +194,43 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>CO2priceGermany2016</t>
+  </si>
+  <si>
+    <t>eur/ ton</t>
+  </si>
+  <si>
+    <t>PriceCO2</t>
+  </si>
+  <si>
+    <t>Euro/MWh</t>
+  </si>
+  <si>
+    <t>PricewithCO2</t>
+  </si>
+  <si>
+    <t>Low (€/MWh)</t>
+  </si>
+  <si>
+    <t>Normal (€/MWh)</t>
+  </si>
+  <si>
+    <t>Hard coal</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>Fuel prices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -208,16 +238,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,13 +280,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,17 +724,72 @@
         <v>7576</v>
       </c>
     </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="4">
+        <v>6.37</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.79</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="E20:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,7 +798,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -696,7 +839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -740,7 +883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -760,7 +903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -784,7 +927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -805,7 +948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -826,7 +969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -839,7 +982,7 @@
         <v>6.9444444444444446</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:K7" si="1">J6/3600</f>
+        <f t="shared" ref="J7" si="1">J6/3600</f>
         <v>6.9444444444444446</v>
       </c>
       <c r="K7">
@@ -850,7 +993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -868,14 +1011,14 @@
         <v>0.35</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M10" si="2">AVERAGE(I8:K8)</f>
+        <f t="shared" ref="M8:M9" si="2">AVERAGE(I8:K8)</f>
         <v>0.3833333333333333</v>
       </c>
       <c r="N8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -885,11 +1028,11 @@
         <v>324</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:K9" si="3">I7*I8</f>
+        <f>I7*I8</f>
         <v>2.7777777777777781</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J9" si="3">J7*J8</f>
         <v>2.7777777777777781</v>
       </c>
       <c r="K9">
@@ -904,36 +1047,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="H10">
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <f>H4/H9</f>
         <v>4.216049382716049</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <f>I4/I9</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="J10">
-        <f t="shared" ref="I10:K10" si="4">J4/J9</f>
+      <c r="J10" s="3">
+        <f t="shared" ref="J10" si="4">J4/J9</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f>K4/K9</f>
         <v>43.994899850498804</v>
       </c>
-      <c r="M10">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
         <f>AVERAGE(I10:K10)</f>
         <v>24.264966616832936</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -955,11 +1104,14 @@
         <v>0.5484697514695519</v>
       </c>
       <c r="M11">
-        <f>AVERAGE(I11:K11)</f>
+        <f t="shared" ref="M11:M15" si="6">AVERAGE(I11:K11)</f>
         <v>0.82122325048985056</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -974,14 +1126,107 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="M12">
-        <f>AVERAGE(I12:K12)</f>
+        <f t="shared" si="6"/>
         <v>0.30533333333333329</v>
       </c>
       <c r="N12" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <f>H13*H5/H9</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>I13*I5/I9</f>
+        <v>4.7879999999999994</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:K14" si="7">J13*J5/J9</f>
+        <v>4.7879999999999994</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>2.742348757347759</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>4.1061162524492527</v>
+      </c>
+      <c r="N14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <f>H14+H10</f>
+        <v>4.216049382716049</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" ref="I15:J15" si="8">I14+I10</f>
+        <v>19.187999999999999</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="8"/>
+        <v>19.187999999999999</v>
+      </c>
+      <c r="K15" s="3">
+        <f>K14+K10</f>
+        <v>46.73724860784656</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <f t="shared" si="6"/>
+        <v>28.371082869282187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/smard/Installed_generation_capacity_201601010000_201612312359.xlsx
+++ b/smard/Installed_generation_capacity_201601010000_201612312359.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23200" windowHeight="6680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23200" windowHeight="6680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Installed generation capacity" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Data category: Installed generation capacity</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Fuel prices</t>
+  </si>
+  <si>
+    <t>RealCapacity</t>
   </si>
 </sst>
 </file>
@@ -602,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="E20:G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1197,12 +1200,24 @@
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
       <c r="H15" s="3">
         <f>H14+H10</f>
         <v>4.216049382716049</v>
@@ -1223,6 +1238,27 @@
       <c r="M15" s="3">
         <f t="shared" si="6"/>
         <v>28.371082869282187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="3">
+        <f>H8*H2</f>
+        <v>3237.9</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" ref="I16:K16" si="9">I8*I2</f>
+        <v>8424.8000000000011</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="9"/>
+        <v>10505.6</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="9"/>
+        <v>11339.3</v>
       </c>
     </row>
   </sheetData>

--- a/smard/Installed_generation_capacity_201601010000_201612312359.xlsx
+++ b/smard/Installed_generation_capacity_201601010000_201612312359.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>Data category: Installed generation capacity</t>
   </si>
@@ -223,10 +223,37 @@
     <t>Lignite</t>
   </si>
   <si>
-    <t>Fuel prices</t>
-  </si>
-  <si>
     <t>RealCapacity</t>
+  </si>
+  <si>
+    <t>https://energypost.eu/lignite-europe-fighting-back-renewables/#:~:text=The%20average%20calorific%20value%20of,in%20Middle%20Germany%20near%20Leipzig.</t>
+  </si>
+  <si>
+    <t>MJ/ton</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>High (€/MWh)</t>
+  </si>
+  <si>
+    <t>Price_fromFuels</t>
+  </si>
+  <si>
+    <t>PriceCO2_fromFUels</t>
+  </si>
+  <si>
+    <t>AGORA</t>
+  </si>
+  <si>
+    <t>assume its oil</t>
+  </si>
+  <si>
+    <t>PricewithCO2_calculated</t>
+  </si>
+  <si>
+    <t>Euro/MWh_el</t>
   </si>
 </sst>
 </file>
@@ -261,7 +288,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +301,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -290,15 +323,6 @@
       <bottom style="medium">
         <color rgb="FFEBEBEB"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -316,12 +340,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -338,6 +360,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268702</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4502150"/>
+          <a:ext cx="9380952" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>439750</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>78559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8185150"/>
+          <a:ext cx="12600000" cy="6523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>87369</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>176995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15182850"/>
+          <a:ext cx="12247619" cy="6438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="V84" sqref="V84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,72 +868,118 @@
         <v>7576</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>2006</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>64</v>
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6.37</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7.98</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4">
-        <v>2.99</v>
+        <v>3.03</v>
       </c>
       <c r="C16" s="4">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.79</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B17" s="4">
-        <v>6.37</v>
+        <v>25.65</v>
       </c>
       <c r="C17" s="4">
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="4">
-        <v>3.03</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3.79</v>
+        <v>32.15</v>
+      </c>
+      <c r="D17" s="4">
+        <v>38.479999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="8">
+        <v>17.3</v>
+      </c>
+      <c r="C18" s="8">
+        <v>21.69</v>
+      </c>
+      <c r="D18" s="8">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B14:C14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,6 +1028,9 @@
       <c r="M1" t="s">
         <v>32</v>
       </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -959,8 +1149,7 @@
         <v>3888000</v>
       </c>
       <c r="I6">
-        <f>J6</f>
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="J6">
         <v>25000</v>
@@ -981,11 +1170,11 @@
         <v>1080</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I8" si="0">J7</f>
-        <v>6.9444444444444446</v>
+        <f>I6/3600</f>
+        <v>2.7777777777777777</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7" si="1">J6/3600</f>
+        <f>J6/3600</f>
         <v>6.9444444444444446</v>
       </c>
       <c r="K7">
@@ -1000,22 +1189,21 @@
       <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>0.3</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
+      <c r="I8" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="J8" s="7">
         <v>0.4</v>
       </c>
-      <c r="J8">
-        <v>0.4</v>
-      </c>
-      <c r="K8">
-        <v>0.35</v>
+      <c r="K8" s="7">
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M9" si="2">AVERAGE(I8:K8)</f>
-        <v>0.3833333333333333</v>
+        <f t="shared" ref="M8:M9" si="0">AVERAGE(I8:K8)</f>
+        <v>0.41</v>
       </c>
       <c r="N8" t="s">
         <v>53</v>
@@ -1031,20 +1219,20 @@
         <v>324</v>
       </c>
       <c r="I9">
-        <f>I7*I8</f>
+        <f t="shared" ref="I9:K9" si="1">I7*I8</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
         <v>2.7777777777777781</v>
       </c>
-      <c r="J9">
-        <f t="shared" ref="J9" si="3">J7*J8</f>
-        <v>2.7777777777777781</v>
-      </c>
       <c r="K9">
-        <f>K7*K8</f>
-        <v>3.4094861111111114E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.8706944444444449E-3</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
-        <v>1.8529883472222224</v>
+        <f t="shared" si="0"/>
+        <v>1.2331050462962965</v>
       </c>
       <c r="N9" t="s">
         <v>40</v>
@@ -1052,9 +1240,9 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1066,20 +1254,20 @@
       </c>
       <c r="I10" s="3">
         <f>I4/I9</f>
-        <v>14.399999999999999</v>
+        <v>43.63636363636364</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10" si="4">J4/J9</f>
+        <f>J4/J9</f>
         <v>14.399999999999999</v>
       </c>
       <c r="K10" s="3">
         <f>K4/K9</f>
-        <v>43.994899850498804</v>
+        <v>30.796429895349164</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3">
         <f>AVERAGE(I10:K10)</f>
-        <v>24.264966616832936</v>
+        <v>29.610931177237603</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>41</v>
@@ -1087,178 +1275,260 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11">
+        <v>4.2</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K11">
+        <v>15.4</v>
+      </c>
+      <c r="M11">
+        <v>24.6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="H11">
+      <c r="C12" s="1"/>
+      <c r="H12">
         <f>(H5/H7)</f>
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <f>(I5/I7)/I8</f>
+        <v>2.9018181818181819</v>
+      </c>
+      <c r="J12">
+        <f>(J5/J7)/J8</f>
         <v>0.9575999999999999</v>
       </c>
-      <c r="J11">
-        <f t="shared" ref="J11:K11" si="5">(J5/J7)/J8</f>
-        <v>0.9575999999999999</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="5"/>
-        <v>0.5484697514695519</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ref="M11:M15" si="6">AVERAGE(I11:K11)</f>
-        <v>0.82122325048985056</v>
-      </c>
-      <c r="N11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="I12">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="J12">
-        <v>0.35</v>
-      </c>
       <c r="K12">
-        <v>0.20200000000000001</v>
+        <f>(K5/K7)/K8</f>
+        <v>0.38392882602868628</v>
       </c>
       <c r="M12">
-        <f t="shared" si="6"/>
-        <v>0.30533333333333329</v>
+        <f t="shared" ref="M12:M17" si="2">AVERAGE(I12:K12)</f>
+        <v>1.4144490026156227</v>
       </c>
       <c r="N12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="I13">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.35</v>
+      </c>
+      <c r="K13">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0.30533333333333329</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3">
-        <v>5</v>
-      </c>
-      <c r="J13" s="3">
-        <v>5</v>
-      </c>
-      <c r="K13" s="3">
-        <v>5</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="N13" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <f t="shared" si="2"/>
+        <v>5.3</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="H14">
-        <f>H13*H5/H9</f>
+      <c r="H15">
+        <f>H14*H13</f>
         <v>0</v>
       </c>
-      <c r="I14">
-        <f>I13*I5/I9</f>
-        <v>4.7879999999999994</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ref="J14:K14" si="7">J13*J5/J9</f>
-        <v>4.7879999999999994</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="7"/>
-        <v>2.742348757347759</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="6"/>
-        <v>4.1061162524492527</v>
-      </c>
-      <c r="N14" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <f>H14+H10</f>
-        <v>4.216049382716049</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" ref="I15:J15" si="8">I14+I10</f>
-        <v>19.187999999999999</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="8"/>
-        <v>19.187999999999999</v>
-      </c>
-      <c r="K15" s="3">
-        <f>K14+K10</f>
-        <v>46.73724860784656</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3">
-        <f t="shared" si="6"/>
-        <v>28.371082869282187</v>
+      <c r="I15">
+        <f t="shared" ref="I15:K15" si="3">I14*I13</f>
+        <v>1.9291999999999998</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>1.8549999999999998</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>1.0706</v>
+      </c>
+      <c r="M15">
+        <f>AVERAGE(I15:K15)</f>
+        <v>1.6182666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="3">
+        <v>73</v>
+      </c>
+      <c r="H16">
+        <f>H14*H5/H9</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>I14*I5/I9</f>
+        <v>15.379636363636365</v>
+      </c>
+      <c r="J16">
+        <f>J14*J5/J9</f>
+        <v>5.0752799999999993</v>
+      </c>
+      <c r="K16">
+        <f>K14*K5/K9</f>
+        <v>2.0348227779520371</v>
+      </c>
+      <c r="M16">
+        <f>AVERAGE(I16:K16)</f>
+        <v>7.4965797138628005</v>
+      </c>
+      <c r="N16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f>H16+H11</f>
+        <v>4.2</v>
+      </c>
+      <c r="I17" s="3">
+        <f>I15+I11</f>
+        <v>6.9291999999999998</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" ref="J17:K17" si="4">J15+J11</f>
+        <v>10.055</v>
+      </c>
+      <c r="K17" s="3">
+        <f>K15+K11</f>
+        <v>16.470600000000001</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <f t="shared" ref="L17:M17" si="5">M15+M11</f>
+        <v>26.218266666666668</v>
+      </c>
+      <c r="N17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18">
+        <v>4.2</v>
+      </c>
+      <c r="I18">
+        <v>13.9</v>
+      </c>
+      <c r="J18">
+        <v>27.9</v>
+      </c>
+      <c r="K18">
+        <v>37.5</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="3">
         <f>H8*H2</f>
         <v>3237.9</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" ref="I16:K16" si="9">I8*I2</f>
-        <v>8424.8000000000011</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="9"/>
+      <c r="I19" s="3">
+        <f>I8*I2</f>
+        <v>6950.46</v>
+      </c>
+      <c r="J19" s="3">
+        <f>J8*J2</f>
         <v>10505.6</v>
       </c>
-      <c r="K16" s="3">
-        <f t="shared" si="9"/>
-        <v>11339.3</v>
+      <c r="K19" s="3">
+        <f>K8*K2</f>
+        <v>16199</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <f>M8*M2</f>
+        <v>3106.16</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/smard/Installed_generation_capacity_201601010000_201612312359.xlsx
+++ b/smard/Installed_generation_capacity_201601010000_201612312359.xlsx
@@ -372,8 +372,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>268702</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>332202</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>101150</xdr:rowOff>
     </xdr:to>
@@ -410,8 +410,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>439750</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>503250</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>78559</xdr:rowOff>
     </xdr:to>
@@ -448,8 +448,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>87369</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>150869</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>176995</xdr:rowOff>
     </xdr:to>
@@ -746,13 +746,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="V84" sqref="V84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -979,7 +982,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1318,7 +1321,7 @@
         <v>0.38392882602868628</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M17" si="2">AVERAGE(I12:K12)</f>
+        <f t="shared" ref="M12:M14" si="2">AVERAGE(I12:K12)</f>
         <v>1.4144490026156227</v>
       </c>
       <c r="N12" t="s">
@@ -1463,7 +1466,7 @@
         <v>6.9291999999999998</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17:K17" si="4">J15+J11</f>
+        <f t="shared" ref="J17" si="4">J15+J11</f>
         <v>10.055</v>
       </c>
       <c r="K17" s="3">
@@ -1472,7 +1475,7 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3">
-        <f t="shared" ref="L17:M17" si="5">M15+M11</f>
+        <f t="shared" ref="M17" si="5">M15+M11</f>
         <v>26.218266666666668</v>
       </c>
       <c r="N17" t="s">
